--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3622106666666667</v>
+        <v>0.3515896666666666</v>
       </c>
       <c r="N2">
-        <v>1.086632</v>
+        <v>1.054769</v>
       </c>
       <c r="O2">
-        <v>0.06114405336448104</v>
+        <v>0.03702657605490316</v>
       </c>
       <c r="P2">
-        <v>0.06114405336448104</v>
+        <v>0.03702657605490316</v>
       </c>
       <c r="Q2">
-        <v>0.7543593730391112</v>
+        <v>0.2570149762472222</v>
       </c>
       <c r="R2">
-        <v>6.789234357352</v>
+        <v>2.313134786225</v>
       </c>
       <c r="S2">
-        <v>0.002887161255786018</v>
+        <v>0.000619725459671251</v>
       </c>
       <c r="T2">
-        <v>0.002887161255786018</v>
+        <v>0.000619725459671251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H3">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.625351999999999</v>
       </c>
       <c r="O3">
-        <v>0.316534781675848</v>
+        <v>0.1974721703648871</v>
       </c>
       <c r="P3">
-        <v>0.316534781675848</v>
+        <v>0.1974721703648871</v>
       </c>
       <c r="Q3">
-        <v>3.905219989696889</v>
+        <v>1.370726396644444</v>
       </c>
       <c r="R3">
-        <v>35.146979907272</v>
+        <v>12.3365375698</v>
       </c>
       <c r="S3">
-        <v>0.01494645689116314</v>
+        <v>0.003305153881098697</v>
       </c>
       <c r="T3">
-        <v>0.01494645689116314</v>
+        <v>0.003305153881098697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H4">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.686562333333333</v>
+        <v>7.268896000000001</v>
       </c>
       <c r="N4">
-        <v>11.059687</v>
+        <v>21.806688</v>
       </c>
       <c r="O4">
-        <v>0.622321164959671</v>
+        <v>0.7655012535802097</v>
       </c>
       <c r="P4">
-        <v>0.622321164959671</v>
+        <v>0.7655012535802097</v>
       </c>
       <c r="Q4">
-        <v>7.67783256091189</v>
+        <v>5.313623550133334</v>
       </c>
       <c r="R4">
-        <v>69.100493048207</v>
+        <v>47.8226119512</v>
       </c>
       <c r="S4">
-        <v>0.02938538512350115</v>
+        <v>0.0128124354666354</v>
       </c>
       <c r="T4">
-        <v>0.02938538512350115</v>
+        <v>0.0128124354666354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J5">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3622106666666667</v>
+        <v>0.3515896666666666</v>
       </c>
       <c r="N5">
-        <v>1.086632</v>
+        <v>1.054769</v>
       </c>
       <c r="O5">
-        <v>0.06114405336448104</v>
+        <v>0.03702657605490316</v>
       </c>
       <c r="P5">
-        <v>0.06114405336448104</v>
+        <v>0.03702657605490316</v>
       </c>
       <c r="Q5">
-        <v>13.50401776101334</v>
+        <v>13.10804330239333</v>
       </c>
       <c r="R5">
-        <v>121.53615984912</v>
+        <v>117.97238972154</v>
       </c>
       <c r="S5">
-        <v>0.05168395630847755</v>
+        <v>0.03160667241877959</v>
       </c>
       <c r="T5">
-        <v>0.05168395630847756</v>
+        <v>0.03160667241877959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J6">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.625351999999999</v>
       </c>
       <c r="O6">
-        <v>0.316534781675848</v>
+        <v>0.1974721703648871</v>
       </c>
       <c r="P6">
-        <v>0.316534781675848</v>
+        <v>0.1974721703648871</v>
       </c>
       <c r="Q6">
-        <v>69.90853694714666</v>
+        <v>69.90853694714664</v>
       </c>
       <c r="R6">
-        <v>629.1768325243199</v>
+        <v>629.1768325243198</v>
       </c>
       <c r="S6">
-        <v>0.2675610942690872</v>
+        <v>0.1685664424194555</v>
       </c>
       <c r="T6">
-        <v>0.2675610942690873</v>
+        <v>0.1685664424194555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J7">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.686562333333333</v>
+        <v>7.268896000000001</v>
       </c>
       <c r="N7">
-        <v>11.059687</v>
+        <v>21.806688</v>
       </c>
       <c r="O7">
-        <v>0.622321164959671</v>
+        <v>0.7655012535802097</v>
       </c>
       <c r="P7">
-        <v>0.622321164959671</v>
+        <v>0.7655012535802097</v>
       </c>
       <c r="Q7">
-        <v>137.4432279550467</v>
+        <v>271.00057982912</v>
       </c>
       <c r="R7">
-        <v>1236.98905159542</v>
+        <v>2439.00521846208</v>
       </c>
       <c r="S7">
-        <v>0.5260367628538799</v>
+        <v>0.6534481428204014</v>
       </c>
       <c r="T7">
-        <v>0.52603676285388</v>
+        <v>0.6534481428204014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H8">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3622106666666667</v>
+        <v>0.3515896666666666</v>
       </c>
       <c r="N8">
-        <v>1.086632</v>
+        <v>1.054769</v>
       </c>
       <c r="O8">
-        <v>0.06114405336448104</v>
+        <v>0.03702657605490316</v>
       </c>
       <c r="P8">
-        <v>0.06114405336448104</v>
+        <v>0.03702657605490316</v>
       </c>
       <c r="Q8">
-        <v>1.717380946194667</v>
+        <v>1.990748743254444</v>
       </c>
       <c r="R8">
-        <v>15.456428515752</v>
+        <v>17.91673868929</v>
       </c>
       <c r="S8">
-        <v>0.006572935800217463</v>
+        <v>0.004800178176452313</v>
       </c>
       <c r="T8">
-        <v>0.006572935800217463</v>
+        <v>0.004800178176452313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H9">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.625351999999999</v>
       </c>
       <c r="O9">
-        <v>0.316534781675848</v>
+        <v>0.1974721703648871</v>
       </c>
       <c r="P9">
-        <v>0.316534781675848</v>
+        <v>0.1974721703648871</v>
       </c>
       <c r="Q9">
-        <v>8.890656947741332</v>
+        <v>10.61717060736889</v>
       </c>
       <c r="R9">
-        <v>80.01591252967199</v>
+        <v>95.55453546631999</v>
       </c>
       <c r="S9">
-        <v>0.03402723051559765</v>
+        <v>0.02560057406433292</v>
       </c>
       <c r="T9">
-        <v>0.03402723051559765</v>
+        <v>0.02560057406433292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H10">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.686562333333333</v>
+        <v>7.268896000000001</v>
       </c>
       <c r="N10">
-        <v>11.059687</v>
+        <v>21.806688</v>
       </c>
       <c r="O10">
-        <v>0.622321164959671</v>
+        <v>0.7655012535802097</v>
       </c>
       <c r="P10">
-        <v>0.622321164959671</v>
+        <v>0.7655012535802097</v>
       </c>
       <c r="Q10">
-        <v>17.47941872195634</v>
+        <v>41.15748256778667</v>
       </c>
       <c r="R10">
-        <v>157.314768497607</v>
+        <v>370.41734311008</v>
       </c>
       <c r="S10">
-        <v>0.06689901698228994</v>
+        <v>0.09924067529317278</v>
       </c>
       <c r="T10">
-        <v>0.06689901698228994</v>
+        <v>0.09924067529317278</v>
       </c>
     </row>
   </sheetData>
